--- a/biology/Botanique/Molène_noire/Molène_noire.xlsx
+++ b/biology/Botanique/Molène_noire/Molène_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_noire</t>
+          <t>Molène_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbascum nigrum
 La Molène noire (Verbascum nigrum) ou Bouillon-noir est une plante herbacée vivace de la famille des Scrofulariacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_noire</t>
+          <t>Molène_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante atteignant 1,2 m de haut, à fleurs en épi, jaunes avec les filets des étamines violets et densément velus. Les feuilles sont pétiolées, vert sombre, légèrement velues. La tige est anguleuse.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Molène_noire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_noire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juin-septembre
 Inflorescence : épi simple
@@ -531,44 +580,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mol%C3%A8ne_noire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_noire</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clairières vivaces médioeuropéennes, eutrophiles, mésohydriques, neutrophiles : coupes forestières, terrains vagues, friches, bords de chemins, ballast des voies ferrées.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_noire</t>
+          <t>Molène_noire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,12 +601,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce eurasiatique : Europe sauf nord et sud ; Asie médiane.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clairières vivaces médioeuropéennes, eutrophiles, mésohydriques, neutrophiles : coupes forestières, terrains vagues, friches, bords de chemins, ballast des voies ferrées.
 </t>
         </is>
       </c>
@@ -599,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_noire</t>
+          <t>Molène_noire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,12 +634,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce eurasiatique : Europe sauf nord et sud ; Asie médiane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Molène_noire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_noire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Usages médicinaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une infusion de feuilles est utilisée pour le traitement de divers problèmes respiratoires dont la toux, la bronchite, l'asthme et les irritations de la gorge[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une infusion de feuilles est utilisée pour le traitement de divers problèmes respiratoires dont la toux, la bronchite, l'asthme et les irritations de la gorge.
 </t>
         </is>
       </c>
